--- a/Excel-Documents/WBManifestTable_1706103320817.xlsx
+++ b/Excel-Documents/WBManifestTable_1706103320817.xlsx
@@ -3305,7 +3305,7 @@
       </c>
       <c r="N2" s="10" t="inlineStr">
         <is>
-          <t>+30</t>
+          <t>+150</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="N3" s="10" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>+120</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="N4" s="10" t="inlineStr">
         <is>
-          <t>+20</t>
+          <t>+140</t>
         </is>
       </c>
     </row>
